--- a/Masters/Character/CharacterProfileMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterProfileMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterProfileMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D042C902-8FC6-46D8-B312-CED29680A5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FFBC1-C35F-4268-96D7-3D67EB227F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>○</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>プロフィールID</t>
   </si>
   <si>
@@ -129,6 +126,14 @@
   </si>
   <si>
     <t>CvName</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -542,7 +547,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -553,46 +558,46 @@
   <sheetData>
     <row r="1" spans="1:25" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -663,46 +668,46 @@
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -718,46 +723,46 @@
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
